--- a/de15.xlsx
+++ b/de15.xlsx
@@ -95,9 +95,6 @@
     <t>Tên hàng/Ngày bán</t>
   </si>
   <si>
-    <t>Trước ngày 15 hàng tháng</t>
-  </si>
-  <si>
     <t>Chợ Đồng Xuân</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>Tổng thành tiền</t>
   </si>
 </sst>
 </file>
@@ -310,12 +310,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,16 +361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>468973</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166415</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>363271</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64623</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>508949</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,7 +379,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -387,15 +387,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="24736"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4772032" y="784411"/>
-          <a:ext cx="7603945" cy="3930653"/>
+          <a:off x="9153533" y="459440"/>
+          <a:ext cx="7603945" cy="2958353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,7 +681,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,8 +744,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>31</v>
+      <c r="A3" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -779,8 +777,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>31</v>
+      <c r="A4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -804,8 +802,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>31</v>
+      <c r="A5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -821,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="b">
         <f t="shared" si="0"/>
@@ -829,8 +827,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>32</v>
+      <c r="A6" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -854,8 +852,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>32</v>
+      <c r="A7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -871,7 +869,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="b">
         <f t="shared" si="0"/>
@@ -879,8 +877,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
+      <c r="A8" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -896,7 +894,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="b">
         <f t="shared" si="0"/>
@@ -904,8 +902,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>32</v>
+      <c r="A9" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -921,7 +919,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="b">
         <f t="shared" si="0"/>
@@ -929,8 +927,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>32</v>
+      <c r="A10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -953,6 +951,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="18"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
@@ -977,23 +978,23 @@
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>22</v>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="17"/>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -1001,19 +1002,19 @@
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -1022,18 +1023,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9">
         <v>55000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>50000</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>54000</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>49000</v>
       </c>
     </row>
@@ -1042,18 +1043,18 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9">
         <v>60000</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>58000</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>59000</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>56000</v>
       </c>
     </row>
@@ -1062,18 +1063,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9">
         <v>45000</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>42000</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>43000</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -1082,18 +1083,18 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="10">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9">
         <v>64000</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>62000</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>63000</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>61000</v>
       </c>
     </row>
